--- a/LIBERADO.xlsx
+++ b/LIBERADO.xlsx
@@ -48,14 +48,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="@"/>
-    <numFmt numFmtId="170" formatCode="0.00&quot;mi&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="0.00&quot;mi&quot;"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -259,7 +260,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,7 +268,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,7 +288,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,9 +319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>608400</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>370440</xdr:rowOff>
+      <xdr:rowOff>370080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -335,7 +336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8501040" y="9639360"/>
-          <a:ext cx="8280" cy="8280"/>
+          <a:ext cx="7920" cy="7920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -358,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AMJ2" activeCellId="0" sqref="AMJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/LIBERADO.xlsx
+++ b/LIBERADO.xlsx
@@ -319,9 +319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>370080</xdr:rowOff>
+      <xdr:rowOff>369720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -336,7 +336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8501040" y="9639360"/>
-          <a:ext cx="7920" cy="7920"/>
+          <a:ext cx="7560" cy="7560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -359,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1354,9 +1354,8 @@
       <c r="F121" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="48">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="A5:F8"/>
     <mergeCell ref="A9:C12"/>

--- a/LIBERADO.xlsx
+++ b/LIBERADO.xlsx
@@ -257,7 +257,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -319,9 +319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
+      <xdr:colOff>607680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>369720</xdr:rowOff>
+      <xdr:rowOff>369360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -335,8 +335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8501040" y="9639360"/>
-          <a:ext cx="7560" cy="7560"/>
+          <a:off x="8501040" y="9636840"/>
+          <a:ext cx="7200" cy="7200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -359,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,10 +372,10 @@
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="8" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>50490762</v>
       </c>

--- a/LIBERADO.xlsx
+++ b/LIBERADO.xlsx
@@ -214,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,10 +296,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,9 +326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>607320</xdr:colOff>
+      <xdr:colOff>606960</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>369000</xdr:rowOff>
+      <xdr:rowOff>368640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,45 +342,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9503640" y="9637560"/>
-          <a:ext cx="6840" cy="6840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1520280</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>331560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6244200" y="8056080"/>
-          <a:ext cx="1727640" cy="1550880"/>
+          <a:off x="9505080" y="9637560"/>
+          <a:ext cx="6480" cy="6480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,7 +702,7 @@
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20"/>
@@ -751,7 +710,7 @@
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
+      <c r="F40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20"/>
@@ -759,7 +718,7 @@
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="20"/>
@@ -767,7 +726,7 @@
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="20"/>
@@ -775,631 +734,631 @@
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/LIBERADO.xlsx
+++ b/LIBERADO.xlsx
@@ -326,9 +326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>368640</xdr:rowOff>
+      <xdr:rowOff>368280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,7 +343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9505080" y="9637560"/>
-          <a:ext cx="6480" cy="6480"/>
+          <a:ext cx="6120" cy="6120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,10 +364,10 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AMJ30" activeCellId="0" sqref="AMJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -703,6 +703,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="20"/>
@@ -711,6 +712,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="20"/>
@@ -719,6 +721,7 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="20"/>
@@ -727,6 +730,7 @@
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="20"/>
@@ -735,6 +739,7 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="21"/>
@@ -1378,7 +1383,7 @@
     <mergeCell ref="A34:C37"/>
     <mergeCell ref="D34:F37"/>
     <mergeCell ref="A39:E43"/>
-    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F39:G43"/>
     <mergeCell ref="A44:C48"/>
     <mergeCell ref="D44:F48"/>
     <mergeCell ref="A49:C53"/>
